--- a/rtss-mexico/src/main/resources/agriculture/Anuario-Estadístico/production.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/Anuario-Estadístico/production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\Anuario-Estadístico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\Anuario-Estadístico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3BEF66-0B9C-4F03-8C13-15A4A1E34367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0262B91-F842-4AA6-8C77-2CDDE0100541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{8E1B5A88-04BD-4D0E-A4DC-C2898939BD77}"/>
+    <workbookView xWindow="58380" yWindow="540" windowWidth="19620" windowHeight="22020" activeTab="1" xr2:uid="{8E1B5A88-04BD-4D0E-A4DC-C2898939BD77}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="2" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -255,6 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,107 +573,107 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -687,5418 +687,5418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13D1DF1-B6CB-4027-B87A-5338AFFDF155}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AB49" sqref="AB49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="23.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="3">
         <v>1897</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>3006</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5213</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>264</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>456</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>198</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>978</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>22</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>11</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>179</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>408</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="3">
         <v>1898</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2746</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>4780</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>239</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>431</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>352</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1559</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>21</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>11</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>272</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>616</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="3">
         <v>1899</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2404</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>4166</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>253</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>443</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>177</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>880</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>25</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>12</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>225</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>480</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="3">
         <v>1900</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2309</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>4036</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>359</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>631</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>162</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>657</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>21</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>213</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>522</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="3">
         <v>1901</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2305</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4042</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>327</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>572</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>236</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1021</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>19</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>10</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>157</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>326</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="3">
         <v>1902</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2200</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3871</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>242</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>413</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>220</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>962</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>21</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>10</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>126</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>264</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="3">
         <v>1903</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>2241</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>3950</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>322</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>556</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>184</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>878</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>22</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>10</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>184</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>392</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="3">
         <v>1904</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2210</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>3881</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>264</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>480</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>163</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>780</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>28</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>13</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>158</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>337</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="3">
         <v>1905</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2134</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>3653</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>303</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>550</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>149</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>633</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>25</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>12</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>134</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>287</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="3">
         <v>1906</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2715</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>4743</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>360</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>643</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>178</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>723</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>32</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>15</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>154</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>330</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="3">
         <v>1907</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>2862</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>4900</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>313</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>560</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>169</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>722</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>33</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>16</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>220</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>484</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="3">
         <v>1925</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1968</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2936</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>251</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>457</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>188</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>924</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>86</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>50</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>83</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>175</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>170</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>9</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>111</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>10</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="3">
         <v>1926</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>2135</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>3137</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>281</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>521</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>199</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>965</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>91</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>52</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>94</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>181</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>174</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>9</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>111</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>10</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="3">
         <v>1927</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>2059</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>3181</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>324</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>531</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>190</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>960</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>83</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>50</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>98</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>176</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>179</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>9</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>103</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>0</v>
       </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="3">
         <v>1928</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>2173</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3112</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>300</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>519</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>176</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>887</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>83</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>45</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>86</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>178</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>200</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>10</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>115</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>10</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="3">
         <v>1929</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>1469</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2865</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>308</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>523</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>95</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>733</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>67</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>35</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>55</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>161</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>210</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>11</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>120</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>11</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="3">
         <v>1930</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1377</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>3075</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>312</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>492</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>83</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>709</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>75</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>37</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>59</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>146</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>198</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>11</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>108</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>10</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="3">
         <v>1931</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>2139</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>3378</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>442</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>607</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>136</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>723</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>72</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>36</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>69</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>150</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>197</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>11</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>106</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>11</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="3">
         <v>1932</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>1973</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>3243</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>263</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>447</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>132</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>640</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>72</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>34</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>66</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>160</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>196</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>10</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>110</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>10</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="3">
         <v>1933</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1924</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>3198</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>330</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>475</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>186</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>662</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>67</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>33</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>69</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>155</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>264</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>14</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>95</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>9</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="3">
         <v>1934</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>1723</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>2970</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>298</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>495</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>124</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>597</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>69</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>32</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>69</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>153</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>304</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>16</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>121</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>12</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="3">
         <v>1935</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>1656</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>2966</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>292</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>462</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>121</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>568</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>71</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>31</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>76</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>142</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>494</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>26</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>126</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>11</v>
       </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="3">
         <v>1936</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>1957</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>2852</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>370</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>511</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>107</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>528</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>86</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>40</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>74</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>139</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>462</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>30</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>123</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>12</v>
       </c>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="3">
         <v>1937</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>1635</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>3000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>288</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>487</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>104</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>547</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>75</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>40</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>71</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>138</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>487</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>31</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>121</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>14</v>
       </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="3">
         <v>1938</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>1693</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>3094</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>325</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>502</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>106</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>596</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>80</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>39</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>70</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>144</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>422</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>26</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <v>125</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <v>14</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="3">
         <v>1939</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>1977</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>3267</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>402</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>571</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>148</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>632</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>98</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>42</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>90</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>139</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>432</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>27</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>134</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>14</v>
       </c>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="3">
         <v>1940</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>1640</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>2954</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>363</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>503</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>97</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>573</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>108</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>38</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>103</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>140</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>238</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
         <v>29</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>131</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>13</v>
       </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+    </row>
+    <row r="30" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="3">
         <v>1941</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>2124</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>3492</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>319</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>554</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>160</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>672</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>113</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>55</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>93</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>147</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="7">
         <v>150</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
         <v>19</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>136</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>14</v>
       </c>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="11"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="10"/>
+    </row>
+    <row r="31" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A31" s="3">
         <v>1942</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>2363</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>3758</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>489</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>600</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>183</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>750</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>108</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>65</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>91</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>139</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>272</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <v>19</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>139</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>16</v>
       </c>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="11"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="3">
         <v>1943</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>1808</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>3083</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>364</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>510</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>157</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>700</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>114</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>66</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>78</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>136</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>310</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <v>22</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>141</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>16</v>
       </c>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+    </row>
+    <row r="33" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="3">
         <v>1944</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>2316</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>3355</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>374</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>527</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>183</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>734</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>104</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>68</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>80</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>135</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>296</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <v>22</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>145</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>16</v>
       </c>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+    </row>
+    <row r="34" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="3">
         <v>1945</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>2186</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>3451</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>347</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>469</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>162</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>728</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <v>121</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>59</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>85</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>145</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="5">
         <v>299</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="5">
         <v>24</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <v>156</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>16</v>
       </c>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="35" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="3">
         <v>1946</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>2383</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>3313</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>340</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>415</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>139</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>734</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>139</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>64</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>84</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>144</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="5">
         <v>302</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="5">
         <v>24</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <v>154</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <v>16</v>
       </c>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="3">
         <v>1947</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>2518</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>3512</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>422</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>499</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>199</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>741</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <v>138</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>72</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <v>88</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>145</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="5">
         <v>298</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="5">
         <v>24</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <v>155</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <v>16</v>
       </c>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="3">
         <v>1948</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>2832</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>3722</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>477</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>577</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>210</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>788</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>163</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>81</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>149</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>202</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="5">
         <v>300</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="5">
         <v>24</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="5">
         <v>160</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <v>17</v>
       </c>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="3">
         <v>1949</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>2871</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>3792</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>503</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>535</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>231</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>886</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <v>185</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>108</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <v>160</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>215</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="5">
         <v>308</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="5">
         <v>24</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <v>166</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="5">
         <v>17</v>
       </c>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="3">
         <v>1950</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>3122</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>4328</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>587</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>644</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>250</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>969</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>187</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>106</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>162</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>230</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="5">
         <v>257</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="5">
         <v>22</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <v>162</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <v>17</v>
       </c>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="3">
         <v>1951</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>3424</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>4458</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>590</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>673</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>203</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>969</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>180</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>104</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <v>164</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>231</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="5">
         <v>187</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="5">
         <v>21</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <v>154</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <v>17</v>
       </c>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="3">
         <v>1952</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>3202</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>4326</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>512</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>593</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>245</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>965</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>151</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>82</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>165</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>231</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="5">
         <v>203</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="5">
         <v>20</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <v>160</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <v>17</v>
       </c>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="3">
         <v>1953</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>3720</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>4863</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>569</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>545</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>299</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>980</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>152</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>94</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>192</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>237</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="5">
         <v>203</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="5">
         <v>20</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>161</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <v>16</v>
       </c>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="3">
         <v>1954</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>4488</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>5253</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>839</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>765</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>399</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>1108</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>170</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>90</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>167</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>231</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <v>205</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <v>20</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <v>160</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="5">
         <v>17</v>
       </c>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="3">
         <v>1955</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>4490</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>5371</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>850</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>800</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>448</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>1187</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>210</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>96</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>192</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>240</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <v>206</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="5">
         <v>20</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <v>242</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <v>25</v>
       </c>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="3">
         <v>1956</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>4382</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>5460</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>1243</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>937</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>432</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="4">
         <v>1343</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>235</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>115</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>197</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>246</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="5">
         <v>246</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="5">
         <v>22</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="5">
         <v>254</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="5">
         <v>26</v>
       </c>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A46" s="3">
         <v>1957</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>4500</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>5392</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>1377</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>958</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>410</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="4">
         <v>1152</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>240</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>117</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>174</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>237</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="5">
         <v>270</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="5">
         <v>24</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="5">
         <v>268</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="5">
         <v>29</v>
       </c>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="3">
         <v>1958</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>5277</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>6371</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>1337</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>840</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>538</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>1409</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>252</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>121</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>183</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>249</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="5">
         <v>274</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="5">
         <v>23</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="5">
         <v>201</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="5">
         <v>23</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="5">
         <v>156</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q47" s="5">
         <v>120</v>
       </c>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+    </row>
+    <row r="48" spans="1:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A48" s="3">
         <v>1959</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>5563</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>6324</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>1264</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>937</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>581</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="4">
         <v>1411</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>261</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>127</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <v>179</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>240</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="5">
         <v>285</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="5">
         <v>24</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="5">
         <v>247</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="5">
         <v>25</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="5">
         <v>179</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="5">
         <v>107</v>
       </c>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A49" s="3">
         <v>1960</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>5420</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>5558</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>1190</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>840</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>528</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>1326</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>328</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>143</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>180</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>240</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="5">
         <v>317</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="5">
         <v>26</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="5">
         <v>296</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="5">
         <v>29</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="5">
         <v>209</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49" s="5">
         <v>116</v>
       </c>
-      <c r="R49" s="6">
-        <v>5</v>
-      </c>
-      <c r="S49" s="6">
+      <c r="R49" s="5">
+        <v>5</v>
+      </c>
+      <c r="S49" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+    <row r="50" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A50" s="3">
         <v>1961</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>6246</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>6288</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>1402</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>837</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>723</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>1617</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>333</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>146</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <v>174</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>243</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="5">
         <v>341</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="5">
         <v>27</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="5">
         <v>306</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="5">
         <v>29</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="5">
         <v>291</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="5">
         <v>117</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="5">
         <v>20</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+    <row r="51" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="3">
         <v>1962</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>6015</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>6410</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>1432</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>736</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>680</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="4">
         <v>1760</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>304</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>134</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <v>173</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>234</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="5">
         <v>353</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="5">
         <v>29</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="5">
         <v>314</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="5">
         <v>30</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="5">
         <v>296</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="5">
         <v>118</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="5">
         <v>57</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+    <row r="52" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="3">
         <v>1963</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>6870</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>6963</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>1703</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>819</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>677</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>1711</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>296</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>135</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <v>186</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>232</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="5">
         <v>413</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="5">
         <v>30</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="5">
         <v>526</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="5">
         <v>43</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="5">
         <v>402</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="5">
         <v>198</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="5">
         <v>56</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    <row r="53" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A53" s="3">
         <v>1964</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>8454</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>7461</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>1527</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>743</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>892</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <v>2091</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>274</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>133</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>171</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>214</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="5">
         <v>422</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="5">
         <v>31</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="5">
         <v>527</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="5">
         <v>44</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="5">
         <v>526</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="5">
         <v>276</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="5">
         <v>60</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+    <row r="54" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A54" s="3">
         <v>1965</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>8678</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>7719</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>1616</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>682</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3">
         <v>858</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="4">
         <v>2117</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>377</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>137</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <v>193</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>226</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="5">
         <v>426</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="5">
         <v>31</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="5">
         <v>534</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="5">
         <v>44</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="5">
         <v>600</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="5">
         <v>278</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="5">
         <v>58</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+    <row r="55" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A55" s="3">
         <v>1966</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>9038</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>8287</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>1612</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>682</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <v>1002</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="4">
         <v>2240</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>383</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>157</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>194</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>241</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="5">
         <v>435</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="5">
         <v>32</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="5">
         <v>543</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="5">
         <v>45</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55" s="5">
         <v>1605</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="Q55" s="5">
         <v>665</v>
       </c>
-      <c r="R55" s="6">
+      <c r="R55" s="5">
         <v>95</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+    <row r="56" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A56" s="3">
         <v>1967</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>8405</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>7587</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>2061</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>751</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>980</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="4">
         <v>1930</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>418</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="5">
         <v>168</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <v>204</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>238</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="5">
         <v>396</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="5">
         <v>30</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="5">
         <v>519</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="5">
         <v>42</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="5">
         <v>1667</v>
       </c>
-      <c r="Q56" s="6">
+      <c r="Q56" s="5">
         <v>637</v>
       </c>
-      <c r="R56" s="6">
+      <c r="R56" s="5">
         <v>131</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+    <row r="57" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="3">
         <v>1968</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>9062</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>7676</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>1780</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>704</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>857</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <v>1791</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>347</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>138</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>253</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>252</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="5">
         <v>451</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="5">
         <v>34</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="5">
         <v>454</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="5">
         <v>37</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="5">
         <v>2133</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="Q57" s="5">
         <v>830</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57" s="5">
         <v>275</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57" s="5">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+    <row r="58" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A58" s="3">
         <v>1969</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>8411</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>7104</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>1915</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>783</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>835</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="4">
         <v>1656</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>395</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>153</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <v>212</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>245</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="5">
         <v>269</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="5">
         <v>23</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="5">
         <v>452</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="5">
         <v>35</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="5">
         <v>2456</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="Q58" s="5">
         <v>8832</v>
       </c>
-      <c r="R58" s="6">
+      <c r="R58" s="5">
         <v>287</v>
       </c>
-      <c r="S58" s="6">
+      <c r="S58" s="5">
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+    <row r="59" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A59" s="3">
         <v>1970</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>8879</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>7440</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>2148</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>763</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>925</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <v>1747</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>405</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>150</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <v>238</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>224</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="5">
         <v>262</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="5">
         <v>23</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="5">
         <v>703</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="5">
         <v>51</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="5">
         <v>2747</v>
       </c>
-      <c r="Q59" s="6">
+      <c r="Q59" s="5">
         <v>971</v>
       </c>
-      <c r="R59" s="6">
+      <c r="R59" s="5">
         <v>215</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S59" s="5">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+    <row r="60" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A60" s="3">
         <v>1971</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>9302</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>7135</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>2019</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>697</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>1482</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="4">
         <v>1881</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>440</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <v>166</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <v>227</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>234</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="5">
         <v>425</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="5">
         <v>32</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="5">
         <v>691</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="5">
         <v>49</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="5">
         <v>2593</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="Q60" s="5">
         <v>956</v>
       </c>
-      <c r="R60" s="6">
+      <c r="R60" s="5">
         <v>256</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="5">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+    <row r="61" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="5">
         <v>1972</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>9223</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>7292</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>1809</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>687</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>869</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="4">
         <v>1687</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>375</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>145</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <v>310</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>217</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="5">
         <v>82</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="5">
         <v>11</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="4">
         <v>1011</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="5">
         <v>63</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="5">
         <v>2561</v>
       </c>
-      <c r="Q61" s="6">
+      <c r="Q61" s="5">
         <v>1083</v>
       </c>
-      <c r="R61" s="6">
+      <c r="R61" s="5">
         <v>377</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="5">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+    <row r="62" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="3">
         <v>1973</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>7578</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>6418</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>2090</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>640</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>1009</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="4">
         <v>1870</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="5">
         <v>534</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>150</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="5">
         <v>392</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>262</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="3">
         <v>90</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="5">
         <v>8</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N62" s="5">
         <v>973</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="5">
         <v>59</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62" s="5">
         <v>3270</v>
       </c>
-      <c r="Q62" s="6">
+      <c r="Q62" s="5">
         <v>1186</v>
       </c>
-      <c r="R62" s="6">
+      <c r="R62" s="5">
         <v>585</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="5">
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+    <row r="63" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A63" s="3">
         <v>1974</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>7847</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>6720</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>2789</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>774</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>972</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="4">
         <v>1552</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>492</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>173</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <v>250</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>173</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="5">
         <v>87</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="5">
         <v>8</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="4">
         <v>1011</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="5">
         <v>63</v>
       </c>
-      <c r="P63" s="6">
+      <c r="P63" s="5">
         <v>3494</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="Q63" s="5">
         <v>1129</v>
       </c>
-      <c r="R63" s="6">
+      <c r="R63" s="5">
         <v>491</v>
       </c>
-      <c r="S63" s="6">
+      <c r="S63" s="5">
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+    <row r="64" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A64" s="3">
         <v>1975</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>8459</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>6694</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>2798</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>778</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>1027</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="4">
         <v>1753</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="5">
         <v>717</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>257</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <v>440</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <v>286</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="5">
         <v>106</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="5">
         <v>9</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="4">
         <v>1088</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="5">
         <v>65</v>
       </c>
-      <c r="P64" s="6">
+      <c r="P64" s="5">
         <v>5589</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="Q64" s="5">
         <v>1445</v>
       </c>
-      <c r="R64" s="6">
+      <c r="R64" s="5">
         <v>599</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S64" s="5">
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+    <row r="65" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A65" s="3">
         <v>1976</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>8017</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>6783</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>3363</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>804</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>740</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="4">
         <v>1316</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="5">
         <v>462</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>159</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <v>549</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <v>364</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="5">
         <v>288</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="5">
         <v>18</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N65" s="5">
         <v>911</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="5">
         <v>55</v>
       </c>
-      <c r="P65" s="6">
+      <c r="P65" s="5">
         <v>4027</v>
       </c>
-      <c r="Q65" s="6">
+      <c r="Q65" s="5">
         <v>1251</v>
       </c>
-      <c r="R65" s="6">
+      <c r="R65" s="5">
         <v>302</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S65" s="5">
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+    <row r="66" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A66" s="3">
         <v>1977</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>10174</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>7470</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>2456</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>709</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>762</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>1629</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="5">
         <v>567</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>180</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="5">
         <v>404</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
         <v>247</v>
       </c>
-      <c r="L66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="5">
+      <c r="L66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="4">
         <v>1257</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="5">
         <v>67</v>
       </c>
-      <c r="P66" s="6">
+      <c r="P66" s="5">
         <v>4273</v>
       </c>
-      <c r="Q66" s="6">
+      <c r="Q66" s="5">
         <v>1413</v>
       </c>
-      <c r="R66" s="6">
+      <c r="R66" s="5">
         <v>516</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="5">
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+    <row r="67" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="3">
         <v>1978</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>10930</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>7191</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>2785</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>760</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>949</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="4">
         <v>1580</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="5">
         <v>401</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="5">
         <v>121</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <v>505</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>256</v>
       </c>
-      <c r="L67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M67" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N67" s="5">
+      <c r="L67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N67" s="4">
         <v>1393</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="5">
         <v>71</v>
       </c>
-      <c r="P67" s="6">
+      <c r="P67" s="5">
         <v>4193</v>
       </c>
-      <c r="Q67" s="6">
+      <c r="Q67" s="5">
         <v>1399</v>
       </c>
-      <c r="R67" s="6">
+      <c r="R67" s="5">
         <v>334</v>
       </c>
-      <c r="S67" s="6">
+      <c r="S67" s="5">
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+    <row r="68" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="3">
         <v>1979</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>8458</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>5581</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>2287</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>584</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>641</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="4">
         <v>1251</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="5">
         <v>494</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="5">
         <v>151</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="5">
         <v>368</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <v>250</v>
       </c>
-      <c r="L68" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M68" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N68" s="5">
+      <c r="L68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N68" s="4">
         <v>1271</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="5">
         <v>66</v>
       </c>
-      <c r="P68" s="6">
+      <c r="P68" s="5">
         <v>3988</v>
       </c>
-      <c r="Q68" s="6">
+      <c r="Q68" s="5">
         <v>1164</v>
       </c>
-      <c r="R68" s="6">
+      <c r="R68" s="5">
         <v>707</v>
       </c>
-      <c r="S68" s="6">
+      <c r="S68" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+    <row r="69" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="3">
         <v>1980</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>12382</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>6955</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>2785</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>739</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>971</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="4">
         <v>1763</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="5">
         <v>445</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="5">
         <v>127</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <v>530</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <v>319</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N69" s="5">
+      <c r="L69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N69" s="4">
         <v>1438</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="5">
         <v>73</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="5">
         <v>4812</v>
       </c>
-      <c r="Q69" s="6">
+      <c r="Q69" s="5">
         <v>1579</v>
       </c>
-      <c r="R69" s="6">
+      <c r="R69" s="5">
         <v>322</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S69" s="5">
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+    <row r="70" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="3">
         <v>1981</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>14766</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>8150</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>3189</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>861</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <v>1469</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="4">
         <v>2150</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="5">
         <v>652</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="5">
         <v>175</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="5">
         <v>551</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <v>271</v>
       </c>
-      <c r="L70" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M70" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N70" s="5">
+      <c r="L70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N70" s="4">
         <v>1326</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="5">
         <v>75</v>
       </c>
-      <c r="P70" s="6">
+      <c r="P70" s="5">
         <v>6296</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="Q70" s="5">
         <v>1767</v>
       </c>
-      <c r="R70" s="6">
+      <c r="R70" s="5">
         <v>707</v>
       </c>
-      <c r="S70" s="6">
+      <c r="S70" s="5">
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+    <row r="71" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="3">
         <v>1982</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>10129</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>5463</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>4462</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>1011</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="5">
         <v>949</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>1581</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="5">
         <v>518</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="5">
         <v>156</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="5">
         <v>424</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>228</v>
       </c>
-      <c r="L71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N71" s="5">
+      <c r="L71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N71" s="4">
         <v>1667</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="5">
         <v>74</v>
       </c>
-      <c r="P71" s="6">
+      <c r="P71" s="5">
         <v>4717</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="Q71" s="5">
         <v>1275</v>
       </c>
-      <c r="R71" s="6">
+      <c r="R71" s="5">
         <v>649</v>
       </c>
-      <c r="S71" s="6">
+      <c r="S71" s="5">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+    <row r="72" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="3">
         <v>1983</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>13061</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>7421</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>3460</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>857</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>1282</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <v>1996</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72" s="5">
         <v>416</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="5">
         <v>133</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="5">
         <v>558</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="5">
         <v>304</v>
       </c>
-      <c r="L72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="5">
+      <c r="L72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="4">
         <v>1640</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="5">
         <v>72</v>
       </c>
-      <c r="P72" s="6">
+      <c r="P72" s="5">
         <v>4846</v>
       </c>
-      <c r="Q72" s="6">
+      <c r="Q72" s="5">
         <v>1518</v>
       </c>
-      <c r="R72" s="6">
+      <c r="R72" s="5">
         <v>688</v>
       </c>
-      <c r="S72" s="6">
+      <c r="S72" s="5">
         <v>391</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+    <row r="73" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="3">
         <v>1984</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>12788</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>6893</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>4505</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>1034</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="5">
         <v>931</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="4">
         <v>1679</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="5">
         <v>483</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="5">
         <v>126</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <v>619</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <v>283</v>
       </c>
-      <c r="L73" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M73" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N73" s="5">
+      <c r="L73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="4">
         <v>2093</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73" s="5">
         <v>75</v>
       </c>
-      <c r="P73" s="6">
+      <c r="P73" s="5">
         <v>5038</v>
       </c>
-      <c r="Q73" s="6">
+      <c r="Q73" s="5">
         <v>1636</v>
       </c>
-      <c r="R73" s="6">
+      <c r="R73" s="5">
         <v>685</v>
       </c>
-      <c r="S73" s="6">
+      <c r="S73" s="5">
         <v>389</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+    <row r="74" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A74" s="3">
         <v>1985</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>14103</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>7590</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>5214</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>1217</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="5">
         <v>912</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="4">
         <v>1782</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74" s="5">
         <v>807</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="5">
         <v>216</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="5">
         <v>536</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="5">
         <v>281</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M74" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N74" s="5">
+      <c r="L74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="4">
         <v>1996</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O74" s="5">
         <v>79</v>
       </c>
-      <c r="P74" s="6">
+      <c r="P74" s="5">
         <v>6597</v>
       </c>
-      <c r="Q74" s="6">
+      <c r="Q74" s="5">
         <v>1862</v>
       </c>
-      <c r="R74" s="6">
+      <c r="R74" s="5">
         <v>929</v>
       </c>
-      <c r="S74" s="6">
+      <c r="S74" s="5">
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+    <row r="75" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A75" s="3">
         <v>1986</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>11721</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>6417</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>4770</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="4">
         <v>1201</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <v>1086</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <v>1820</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="5">
         <v>545</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="5">
         <v>158</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="5">
         <v>516</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>264</v>
       </c>
-      <c r="L75" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M75" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N75" s="5">
+      <c r="L75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N75" s="4">
         <v>1834</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75" s="5">
         <v>82</v>
       </c>
-      <c r="P75" s="6">
+      <c r="P75" s="5">
         <v>4833</v>
       </c>
-      <c r="Q75" s="6">
+      <c r="Q75" s="5">
         <v>1533</v>
       </c>
-      <c r="R75" s="6">
+      <c r="R75" s="5">
         <v>709</v>
       </c>
-      <c r="S75" s="6">
+      <c r="S75" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+    <row r="76" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A76" s="5">
         <v>1987</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>11607</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>6801</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>4415</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>988</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <v>1024</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="4">
         <v>1787</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="5">
         <v>591</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="5">
         <v>155</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="5">
         <v>517</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="5">
         <v>286</v>
       </c>
-      <c r="L76" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="5">
+      <c r="L76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="4">
         <v>2122</v>
       </c>
-      <c r="O76" s="6">
+      <c r="O76" s="5">
         <v>88</v>
       </c>
-      <c r="P76" s="6">
+      <c r="P76" s="5">
         <v>6298</v>
       </c>
-      <c r="Q76" s="6">
+      <c r="Q76" s="5">
         <v>1853</v>
       </c>
-      <c r="R76" s="6">
+      <c r="R76" s="5">
         <v>828</v>
       </c>
-      <c r="S76" s="6">
+      <c r="S76" s="5">
         <v>471</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+    <row r="77" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A77" s="5">
         <v>1988</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>10600</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>8506</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>3665</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>912</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>867</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="4">
         <v>1947</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="5">
         <v>456</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="5">
         <v>126</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="5">
         <v>350</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>247</v>
       </c>
-      <c r="L77" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M77" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N77" s="5">
+      <c r="L77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N77" s="4">
         <v>2078</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O77" s="5">
         <v>88</v>
       </c>
-      <c r="P77" s="6">
+      <c r="P77" s="5">
         <v>6895</v>
       </c>
-      <c r="Q77" s="6">
+      <c r="Q77" s="5">
         <v>1800</v>
       </c>
-      <c r="R77" s="6">
+      <c r="R77" s="5">
         <v>226</v>
       </c>
-      <c r="S77" s="6">
+      <c r="S77" s="5">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+    <row r="78" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A78" s="5">
         <v>1989</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>10953</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>6470</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>4376</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>1144</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="5">
         <v>593</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="4">
         <v>1321</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="5">
         <v>527</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="5">
         <v>151</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="5">
         <v>435</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="5">
         <v>264</v>
       </c>
-      <c r="L78" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M78" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N78" s="5">
+      <c r="L78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N78" s="4">
         <v>1824</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78" s="5">
         <v>81</v>
       </c>
-      <c r="P78" s="6">
+      <c r="P78" s="5">
         <v>5002</v>
       </c>
-      <c r="Q78" s="6">
+      <c r="Q78" s="5">
         <v>1621</v>
       </c>
-      <c r="R78" s="6">
+      <c r="R78" s="5">
         <v>992</v>
       </c>
-      <c r="S78" s="6">
+      <c r="S78" s="5">
         <v>490</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+    <row r="79" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A79" s="5">
         <v>1990</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>14535</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>7339</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>3831</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>933</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="4">
         <v>1287</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="4">
         <v>2094</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="5">
         <v>394</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="5">
         <v>105</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="5">
         <v>492</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>263</v>
       </c>
-      <c r="L79" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M79" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N79" s="5">
+      <c r="L79" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N79" s="4">
         <v>1986</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79" s="5">
         <v>75</v>
       </c>
-      <c r="P79" s="6">
+      <c r="P79" s="5">
         <v>5987</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="Q79" s="5">
         <v>1818</v>
       </c>
-      <c r="R79" s="6">
+      <c r="R79" s="5">
         <v>575</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S79" s="5">
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+    <row r="80" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A80" s="5">
         <v>1991</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>14262</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>6947</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>4061</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>984</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <v>1379</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="4">
         <v>1989</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="5">
         <v>347</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="5">
         <v>85</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="5">
         <v>580</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>284</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M80" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N80" s="5">
+      <c r="L80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N80" s="4">
         <v>1889</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O80" s="5">
         <v>74</v>
       </c>
-      <c r="P80" s="6">
+      <c r="P80" s="5">
         <v>4308</v>
       </c>
-      <c r="Q80" s="6">
+      <c r="Q80" s="5">
         <v>1381</v>
       </c>
-      <c r="R80" s="6">
+      <c r="R80" s="5">
         <v>725</v>
       </c>
-      <c r="S80" s="6">
+      <c r="S80" s="5">
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+    <row r="81" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A81" s="5">
         <v>1992</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>16929</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>7219</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>3621</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>916</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>719</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="4">
         <v>1296</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="5">
         <v>394</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="5">
         <v>91</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="5">
         <v>550</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="5">
         <v>290</v>
       </c>
-      <c r="L81" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N81" s="5">
+      <c r="L81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="4">
         <v>2095</v>
       </c>
-      <c r="O81" s="6">
+      <c r="O81" s="5">
         <v>74</v>
       </c>
-      <c r="P81" s="6">
+      <c r="P81" s="5">
         <v>5353</v>
       </c>
-      <c r="Q81" s="6">
+      <c r="Q81" s="5">
         <v>1376</v>
       </c>
-      <c r="R81" s="6">
+      <c r="R81" s="5">
         <v>594</v>
       </c>
-      <c r="S81" s="6">
+      <c r="S81" s="5">
         <v>323</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+    <row r="82" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A82" s="5">
         <v>1993</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>18125</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>7428</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>3582</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>878</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <v>1288</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="4">
         <v>1874</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82" s="5">
         <v>287</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="5">
         <v>59</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="5">
         <v>541</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="5">
         <v>234</v>
       </c>
-      <c r="L82" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M82" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N82" s="5">
+      <c r="L82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N82" s="4">
         <v>2207</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O82" s="5">
         <v>79</v>
       </c>
-      <c r="P82" s="6">
+      <c r="P82" s="5">
         <v>2581</v>
       </c>
-      <c r="Q82" s="6">
+      <c r="Q82" s="5">
         <v>878</v>
       </c>
-      <c r="R82" s="6">
+      <c r="R82" s="5">
         <v>498</v>
       </c>
-      <c r="S82" s="6">
+      <c r="S82" s="5">
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+    <row r="83" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="5">
         <v>1994</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>18236</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>8194</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>4151</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>965</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <v>1364</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="4">
         <v>2087</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H83" s="5">
         <v>394</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="5">
         <v>88</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="5">
         <v>307</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="5">
         <v>116</v>
       </c>
-      <c r="L83" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="5">
+      <c r="L83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="4">
         <v>2295</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O83" s="5">
         <v>75</v>
       </c>
-      <c r="P83" s="6">
+      <c r="P83" s="5">
         <v>3701</v>
       </c>
-      <c r="Q83" s="6">
+      <c r="Q83" s="5">
         <v>1252</v>
       </c>
-      <c r="R83" s="6">
+      <c r="R83" s="5">
         <v>523</v>
       </c>
-      <c r="S83" s="6">
+      <c r="S83" s="5">
         <v>288</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+    <row r="84" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A84" s="5">
         <v>1995</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>18353</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>8020</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>3468</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>929</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <v>1271</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="4">
         <v>2040</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84" s="5">
         <v>367</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="5">
         <v>78</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="5">
         <v>487</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="5">
         <v>246</v>
       </c>
-      <c r="L84" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M84" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N84" s="5">
+      <c r="L84" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N84" s="4">
         <v>2033</v>
       </c>
-      <c r="O84" s="6">
+      <c r="O84" s="5">
         <v>74</v>
       </c>
-      <c r="P84" s="6">
+      <c r="P84" s="5">
         <v>4170</v>
       </c>
-      <c r="Q84" s="6">
+      <c r="Q84" s="5">
         <v>1372</v>
       </c>
-      <c r="R84" s="6">
+      <c r="R84" s="5">
         <v>190</v>
       </c>
-      <c r="S84" s="6">
+      <c r="S84" s="5">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+    <row r="85" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A85" s="5">
         <v>1996</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>18026</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>8051</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>3375</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>809</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <v>1349</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="4">
         <v>2048</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="5">
         <v>394</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="5">
         <v>87</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="5">
         <v>586</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="5">
         <v>283</v>
       </c>
-      <c r="L85" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M85" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N85" s="5">
+      <c r="L85" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N85" s="4">
         <v>2210</v>
       </c>
-      <c r="O85" s="6">
+      <c r="O85" s="5">
         <v>68</v>
       </c>
-      <c r="P85" s="6">
+      <c r="P85" s="5">
         <v>6809</v>
       </c>
-      <c r="Q85" s="6">
+      <c r="Q85" s="5">
         <v>2185</v>
       </c>
-      <c r="R85" s="6">
+      <c r="R85" s="5">
         <v>56</v>
       </c>
-      <c r="S85" s="6">
+      <c r="S85" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+    <row r="86" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="5">
         <v>1997</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>17656</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>7406</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>3657</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>772</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="5">
         <v>965</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>1615</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="5">
         <v>469</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="5">
         <v>113</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="5">
         <v>471</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="5">
         <v>244</v>
       </c>
-      <c r="L86" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M86" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N86" s="5">
+      <c r="L86" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N86" s="4">
         <v>1714</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O86" s="5">
         <v>68</v>
       </c>
-      <c r="P86" s="6">
+      <c r="P86" s="5">
         <v>5712</v>
       </c>
-      <c r="Q86" s="6">
+      <c r="Q86" s="5">
         <v>1877</v>
       </c>
-      <c r="R86" s="6">
+      <c r="R86" s="5">
         <v>185</v>
       </c>
-      <c r="S86" s="6">
+      <c r="S86" s="5">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+    <row r="87" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="5">
         <v>1998</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>18455</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>7877</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>3235</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>769</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <v>1261</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="4">
         <v>2146</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87" s="5">
         <v>458</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="5">
         <v>102</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="5">
         <v>411</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>268</v>
       </c>
-      <c r="L87" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M87" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N87" s="5">
+      <c r="L87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N87" s="4">
         <v>1526</v>
       </c>
-      <c r="O87" s="6">
+      <c r="O87" s="5">
         <v>66</v>
       </c>
-      <c r="P87" s="6">
+      <c r="P87" s="5">
         <v>6475</v>
       </c>
-      <c r="Q87" s="6">
+      <c r="Q87" s="5">
         <v>1953</v>
       </c>
-      <c r="R87" s="6">
+      <c r="R87" s="5">
         <v>150</v>
       </c>
-      <c r="S87" s="6">
+      <c r="S87" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+    <row r="88" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="5">
         <v>1999</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>17706</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>7163</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>3021</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>652</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <v>1059</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="4">
         <v>1709</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="5">
         <v>327</v>
       </c>
-      <c r="I88" s="6">
+      <c r="I88" s="5">
         <v>80</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="5">
         <v>454</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="5">
         <v>227</v>
       </c>
-      <c r="L88" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M88" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N88" s="5">
+      <c r="L88" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N88" s="4">
         <v>1752</v>
       </c>
-      <c r="O88" s="6">
+      <c r="O88" s="5">
         <v>76</v>
       </c>
-      <c r="P88" s="6">
+      <c r="P88" s="5">
         <v>5720</v>
       </c>
-      <c r="Q88" s="6">
+      <c r="Q88" s="5">
         <v>1913</v>
       </c>
-      <c r="R88" s="6">
+      <c r="R88" s="5">
         <v>133</v>
       </c>
-      <c r="S88" s="6">
+      <c r="S88" s="5">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+    <row r="89" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="5">
         <v>2000</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>17557</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>7131</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>3493</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>708</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="5">
         <v>888</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="4">
         <v>1503</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H89" s="5">
         <v>351</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I89" s="5">
         <v>84</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="5">
         <v>713</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="5">
         <v>290</v>
       </c>
-      <c r="L89" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="5">
+      <c r="L89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="4">
         <v>1871</v>
       </c>
-      <c r="O89" s="6">
+      <c r="O89" s="5">
         <v>72</v>
       </c>
-      <c r="P89" s="6">
+      <c r="P89" s="5">
         <v>5842</v>
       </c>
-      <c r="Q89" s="6">
+      <c r="Q89" s="5">
         <v>1899</v>
       </c>
-      <c r="R89" s="6">
+      <c r="R89" s="5">
         <v>102</v>
       </c>
-      <c r="S89" s="6">
+      <c r="S89" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+    <row r="90" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="5">
         <v>2001</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>20134</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>7811</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>3275</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>687</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <v>1063</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="4">
         <v>1698</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H90" s="5">
         <v>227</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="5">
         <v>53</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="5">
         <v>762</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="5">
         <v>311</v>
       </c>
-      <c r="L90" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M90" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N90" s="5">
+      <c r="L90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N90" s="4">
         <v>2114</v>
       </c>
-      <c r="O90" s="6">
+      <c r="O90" s="5">
         <v>76</v>
       </c>
-      <c r="P90" s="6">
+      <c r="P90" s="5">
         <v>6567</v>
       </c>
-      <c r="Q90" s="6">
+      <c r="Q90" s="5">
         <v>1943</v>
       </c>
-      <c r="R90" s="6">
+      <c r="R90" s="5">
         <v>122</v>
       </c>
-      <c r="S90" s="6">
+      <c r="S90" s="5">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+    <row r="91" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="5">
         <v>2002</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>19298</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>7119</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>3236</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>635</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <v>1549</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="4">
         <v>2054</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="5">
         <v>227</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="5">
         <v>50</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="5">
         <v>737</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="5">
         <v>282</v>
       </c>
-      <c r="L91" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="5">
+      <c r="L91" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="4">
         <v>1997</v>
       </c>
-      <c r="O91" s="6">
+      <c r="O91" s="5">
         <v>68</v>
       </c>
-      <c r="P91" s="6">
+      <c r="P91" s="5">
         <v>5206</v>
       </c>
-      <c r="Q91" s="6">
+      <c r="Q91" s="5">
         <v>1744</v>
       </c>
-      <c r="R91" s="6">
+      <c r="R91" s="5">
         <v>86</v>
       </c>
-      <c r="S91" s="6">
+      <c r="S91" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+    <row r="92" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="5">
         <v>2003</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>20701</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>7521</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>2716</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>605</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <v>1415</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="4">
         <v>1904</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="5">
         <v>273</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I92" s="5">
         <v>60</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="5">
         <v>82</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="5">
         <v>364</v>
       </c>
-      <c r="L92" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M92" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N92" s="5">
+      <c r="L92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N92" s="4">
         <v>2066</v>
       </c>
-      <c r="O92" s="6">
+      <c r="O92" s="5">
         <v>73</v>
       </c>
-      <c r="P92" s="6">
+      <c r="P92" s="5">
         <v>6759</v>
       </c>
-      <c r="Q92" s="6">
+      <c r="Q92" s="5">
         <v>1973</v>
       </c>
-      <c r="R92" s="6">
+      <c r="R92" s="5">
         <v>126</v>
       </c>
-      <c r="S92" s="6">
+      <c r="S92" s="5">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+    <row r="93" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A93" s="5">
         <v>2004</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>21686</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>7696</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>2321</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>518</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="4">
         <v>1163</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="4">
         <v>1678</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93" s="5">
         <v>279</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="5">
         <v>62</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="5">
         <v>932</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="5">
         <v>326</v>
       </c>
-      <c r="L93" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M93" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N93" s="5">
+      <c r="L93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N93" s="4">
         <v>2361</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O93" s="5">
         <v>79</v>
       </c>
-      <c r="P93" s="6">
+      <c r="P93" s="5">
         <v>7004</v>
       </c>
-      <c r="Q93" s="6">
+      <c r="Q93" s="5">
         <v>1833</v>
       </c>
-      <c r="R93" s="6">
+      <c r="R93" s="5">
         <v>133</v>
       </c>
-      <c r="S93" s="6">
+      <c r="S93" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+    <row r="94" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A94" s="5">
         <v>2005</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>19339</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>6606</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>3015</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>635</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>827</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="4">
         <v>1621</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H94" s="5">
         <v>291</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="5">
         <v>57</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="5">
         <v>761</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K94" s="5">
         <v>306</v>
       </c>
-      <c r="L94" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="5">
+      <c r="L94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="4">
         <v>2250</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O94" s="5">
         <v>77</v>
       </c>
-      <c r="P94" s="6">
+      <c r="P94" s="5">
         <v>5524</v>
       </c>
-      <c r="Q94" s="6">
+      <c r="Q94" s="5">
         <v>1599</v>
       </c>
-      <c r="R94" s="6">
+      <c r="R94" s="5">
         <v>187</v>
       </c>
-      <c r="S94" s="6">
+      <c r="S94" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+    <row r="95" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A95" s="5">
         <v>2006</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>21893</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>7295</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>3378</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>646</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <v>1386</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="4">
         <v>1723</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="5">
         <v>337</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="5">
         <v>70</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="5">
         <v>869</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="5">
         <v>315</v>
       </c>
-      <c r="L95" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M95" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N95" s="5">
+      <c r="L95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N95" s="4">
         <v>2196</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O95" s="5">
         <v>74</v>
       </c>
-      <c r="P95" s="6">
+      <c r="P95" s="5">
         <v>5519</v>
       </c>
-      <c r="Q95" s="6">
+      <c r="Q95" s="5">
         <v>1600</v>
       </c>
-      <c r="R95" s="6">
+      <c r="R95" s="5">
         <v>81</v>
       </c>
-      <c r="S95" s="6">
+      <c r="S95" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+    <row r="96" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A96" s="5">
         <v>2007</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>23513</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>7333</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>3515</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>692</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <v>994</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="4">
         <v>1489</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96" s="5">
         <v>295</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="5">
         <v>71</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="5">
         <v>653</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="5">
         <v>286</v>
       </c>
-      <c r="L96" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M96" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N96" s="5">
+      <c r="L96" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N96" s="4">
         <v>1965</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O96" s="5">
         <v>76</v>
       </c>
-      <c r="P96" s="6">
+      <c r="P96" s="5">
         <v>6203</v>
       </c>
-      <c r="Q96" s="6">
+      <c r="Q96" s="5">
         <v>1775</v>
       </c>
-      <c r="R96" s="6">
+      <c r="R96" s="5">
         <v>88</v>
       </c>
-      <c r="S96" s="6">
+      <c r="S96" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+    <row r="97" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A97" s="5">
         <v>2008</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>24410</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>7344</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>4214</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>829</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <v>1111</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="4">
         <v>1503</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97" s="5">
         <v>224</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="5">
         <v>50</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="5">
         <v>781</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="5">
         <v>311</v>
       </c>
-      <c r="L97" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M97" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N97" s="5">
+      <c r="L97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N97" s="4">
         <v>2151</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O97" s="5">
         <v>78</v>
       </c>
-      <c r="P97" s="6">
+      <c r="P97" s="5">
         <v>6593</v>
       </c>
-      <c r="Q97" s="6">
+      <c r="Q97" s="5">
         <v>1844</v>
       </c>
-      <c r="R97" s="6">
+      <c r="R97" s="5">
         <v>153</v>
       </c>
-      <c r="S97" s="6">
+      <c r="S97" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+    <row r="98" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A98" s="5">
         <v>2009</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>20143</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>6223</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>4116</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>828</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <v>1041</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="4">
         <v>1205</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98" s="5">
         <v>263</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="5">
         <v>54</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="5">
         <v>519</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="5">
         <v>239</v>
       </c>
-      <c r="L98" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N98" s="5">
+      <c r="L98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N98" s="4">
         <v>2232</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O98" s="5">
         <v>76</v>
       </c>
-      <c r="P98" s="6">
+      <c r="P98" s="5">
         <v>6108</v>
       </c>
-      <c r="Q98" s="6">
+      <c r="Q98" s="5">
         <v>1691</v>
       </c>
-      <c r="R98" s="6">
+      <c r="R98" s="5">
         <v>121</v>
       </c>
-      <c r="S98" s="6">
+      <c r="S98" s="5">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+    <row r="99" spans="1:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A99" s="5">
         <v>2010</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>23302</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>7148</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>3677</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>679</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="4">
         <v>1156</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="4">
         <v>1630</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H99" s="5">
         <v>217</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="5">
         <v>42</v>
       </c>
-      <c r="J99" s="6">
+      <c r="J99" s="5">
         <v>672</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="5">
         <v>268</v>
       </c>
-      <c r="L99" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M99" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N99" s="5">
+      <c r="L99" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N99" s="4">
         <v>2103</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O99" s="5">
         <v>77</v>
       </c>
-      <c r="P99" s="6">
+      <c r="P99" s="5">
         <v>6940</v>
       </c>
-      <c r="Q99" s="6">
+      <c r="Q99" s="5">
         <v>1768</v>
       </c>
-      <c r="R99" s="6">
+      <c r="R99" s="5">
         <v>168</v>
       </c>
-      <c r="S99" s="6">
+      <c r="S99" s="5">
         <v>153</v>
       </c>
     </row>
